--- a/KUDIR/KUDIR/ReportTemplates/СтраховойВзнос.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/СтраховойВзнос.xlsx
@@ -188,17 +188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -230,7 +219,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -243,7 +234,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -267,60 +269,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,9 +629,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:R4"/>
     </sheetView>
   </sheetViews>
@@ -655,193 +657,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="K5" s="20" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="K5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="6" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
@@ -905,137 +907,137 @@
     </row>
     <row r="11" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="6">
         <f>SUM(B11:B13)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <f t="shared" ref="C14:O14" si="0">SUM(C11:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="6">
         <f t="shared" ref="Q14" si="1">SUM(Q11:Q13)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="6">
         <f t="shared" ref="R14" si="2">SUM(R11:R13)</f>
         <v>0</v>
       </c>
@@ -1043,74 +1045,74 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <f>B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="9">
         <f t="shared" ref="C15:R15" si="3">C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="14" t="str">
+      <c r="P15" s="9" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1118,138 +1120,138 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="6">
         <f>SUM(B16:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="6">
         <f t="shared" ref="C19:R19" si="4">SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1257,73 +1259,73 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <f>B15+B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="9">
         <f t="shared" ref="C20:R20" si="5">C15+C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1331,423 +1333,438 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="7">
         <f>SUM(B21:B23)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="7">
         <f t="shared" ref="C24:R24" si="6">SUM(C21:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="5">
         <f>B24+B20</f>
         <v>0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:R25" si="7">C24+C20</f>
         <v>0</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="5">
         <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="5">
         <f t="shared" ref="C29:R29" si="8">SUM(C26:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="5">
         <f>B29+B25</f>
         <v>0</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="5">
         <f t="shared" ref="C30:R30" si="9">C29+C25</f>
         <v>0</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:R5"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:H9"/>
@@ -1757,13 +1774,13 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/KUDIR/KUDIR/ReportTemplates/СтраховойВзнос.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/СтраховойВзнос.xlsx
@@ -98,6 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_р_."/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,35 +285,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,6 +300,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +647,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:R4"/>
+      <selection activeCell="B11" sqref="B11:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,172 +672,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="K5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
@@ -841,9 +856,9 @@
       <c r="O9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
@@ -907,20 +922,20 @@
     </row>
     <row r="11" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -929,20 +944,20 @@
     </row>
     <row r="12" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -951,82 +966,82 @@
     </row>
     <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="23">
         <f>SUM(B11:B13)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="23">
         <f t="shared" ref="C14:O14" si="0">SUM(C11:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1045,74 +1060,74 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="22">
         <f>B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="22">
         <f t="shared" ref="C15:R15" si="3">C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="9" t="str">
+      <c r="P15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1120,21 +1135,21 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1143,20 +1158,20 @@
     </row>
     <row r="17" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1165,82 +1180,82 @@
     </row>
     <row r="18" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="23">
         <f>SUM(B16:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="23">
         <f t="shared" ref="C19:R19" si="4">SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1259,73 +1274,73 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="22">
         <f>B15+B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="22">
         <f t="shared" ref="C20:R20" si="5">C15+C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1333,21 +1348,21 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -1356,100 +1371,100 @@
     </row>
     <row r="22" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="25">
         <f>SUM(B21:B23)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="25">
         <f t="shared" ref="C24:R24" si="6">SUM(C21:C23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1466,62 +1481,62 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="24">
         <f>B24+B20</f>
         <v>0</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="24">
         <f t="shared" ref="C25:R25" si="7">C24+C20</f>
         <v>0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1538,122 +1553,122 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="24">
         <f>SUM(B26:B28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="24">
         <f t="shared" ref="C29:R29" si="8">SUM(C26:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1670,62 +1685,62 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="24">
         <f>B29+B25</f>
         <v>0</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="24">
         <f t="shared" ref="C30:R30" si="9">C29+C25</f>
         <v>0</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -1742,29 +1757,29 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:H9"/>
@@ -1774,13 +1789,13 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:R5"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
